--- a/SQL Data.xlsx
+++ b/SQL Data.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audefomben/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6853F15-79D1-654C-9295-73DC151A0661}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615ACF22-952D-8040-B88F-C2E0BCC0C4D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" activeTab="2" xr2:uid="{81305C87-6E3C-D044-B595-E6B61E499179}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" activeTab="3" xr2:uid="{81305C87-6E3C-D044-B595-E6B61E499179}"/>
   </bookViews>
   <sheets>
     <sheet name="Low Income Countries" sheetId="1" r:id="rId1"/>
     <sheet name="Infrastructure" sheetId="3" r:id="rId2"/>
     <sheet name="Topics" sheetId="2" r:id="rId3"/>
-    <sheet name="Economic Policy. Debt" sheetId="4" r:id="rId4"/>
-    <sheet name="GDP" sheetId="5" r:id="rId5"/>
-    <sheet name="Purchase Power Parity" sheetId="6" r:id="rId6"/>
+    <sheet name="Unemployment Rates" sheetId="9" r:id="rId4"/>
+    <sheet name="School Standards  Guinea" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId6"/>
+    <sheet name="Economic Policy. Debt" sheetId="4" r:id="rId7"/>
+    <sheet name="GDP" sheetId="5" r:id="rId8"/>
+    <sheet name="Purchase Power Parity" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="170">
   <si>
     <t>Dem. People's Rep. Korea</t>
   </si>
@@ -468,6 +471,84 @@
   </si>
   <si>
     <t>GNI, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 3 Lever 2: Do monitoring and auditing processes encourage accountability in the use of funding?</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 3: Overseeing service delivery</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 4 Lever 1: Is there an informed budget process?</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 4 Lever 2: Is the budget comprehensive and transparent?</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 2 Lever 1: Does the government provide more resources to students from disadvantaged backgrounds?</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 4: Budgeting with adequate and transparent information</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 2 Lever 2: Do payments for schooling represent a high share of income for low income households?</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 5 Lever 1: Are more public resources available to students from disadvantaged backgrounds?</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 2: Monitoring learning conditions and outcomes</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 3 Lever 1: Are resources allocated and disbursed in a manner that is transparent and effective?</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 5: Providing more resources to students who need them</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 1 Lever 2: Are there basic educational inputs for all primary school students?</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 5 Lever 2: Do payments for schooling represent a small share of income for low income families?</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 6 Lever 1: Are there systems in place to verify the use of educational resources?</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 1 Lever 1: Are there policies and systems set up to provide basic educational inputs to all?</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 6 Lever 2: Are education expenditures audited?</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 6: Managing resources efficiently</t>
+  </si>
+  <si>
+    <t>SABER: (School Finance) Policy Goal 1: Ensuring basic conditions for learning</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Data Interpretation: 1=Latent; 2=Emerging; 3=Established; 4=Advanced. For additional information, visit the SABER: (website: http://saber.worldbank.org/index.cfm</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Rating Guidelines</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Korea, Dem. People’s Rep.</t>
   </si>
 </sst>
 </file>
@@ -1468,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393EA28F-B0C8-DC4D-AA5A-26B67F11AFA2}">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1668,6 +1749,2127 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A642CC-C105-D149-85F0-6BF715958886}">
+  <dimension ref="A1:E103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1">
+        <v>1993</v>
+      </c>
+      <c r="D1">
+        <v>2003</v>
+      </c>
+      <c r="E1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2">
+        <v>38.799999237060497</v>
+      </c>
+      <c r="D2">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3">
+        <v>29.299999237060501</v>
+      </c>
+      <c r="D3">
+        <v>30.100000381469702</v>
+      </c>
+      <c r="E3">
+        <v>29.700000762939499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4">
+        <v>26.299999237060501</v>
+      </c>
+      <c r="D4">
+        <v>25.399999618530298</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5">
+        <v>24.600000381469702</v>
+      </c>
+      <c r="D5">
+        <v>24.200000762939499</v>
+      </c>
+      <c r="E5">
+        <v>23.600000381469702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6">
+        <v>24.200000762939499</v>
+      </c>
+      <c r="D6">
+        <v>23.100000381469702</v>
+      </c>
+      <c r="E6">
+        <v>23.299999237060501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7">
+        <v>21.5</v>
+      </c>
+      <c r="D7">
+        <v>22.100000381469702</v>
+      </c>
+      <c r="E7">
+        <v>21.700000762939499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8">
+        <v>21.600000381469702</v>
+      </c>
+      <c r="D8">
+        <v>20.200000762939499</v>
+      </c>
+      <c r="E8">
+        <v>21.200000762939499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9">
+        <v>20.299999237060501</v>
+      </c>
+      <c r="D9">
+        <v>20.399999618530298</v>
+      </c>
+      <c r="E9">
+        <v>19.899999618530298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10">
+        <v>18.700000762939499</v>
+      </c>
+      <c r="D10">
+        <v>18.799999237060501</v>
+      </c>
+      <c r="E10">
+        <v>18.299999237060501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11">
+        <v>16.299999237060501</v>
+      </c>
+      <c r="D11">
+        <v>13.300000190734901</v>
+      </c>
+      <c r="E11">
+        <v>15.8999996185303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12">
+        <v>12.1000003814697</v>
+      </c>
+      <c r="D12">
+        <v>12.199999809265099</v>
+      </c>
+      <c r="E12">
+        <v>14.3999996185303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13">
+        <v>13.800000190734901</v>
+      </c>
+      <c r="D13">
+        <v>11.5</v>
+      </c>
+      <c r="E13">
+        <v>13.8999996185303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14">
+        <v>1.1000000238418599</v>
+      </c>
+      <c r="D14">
+        <v>12.8999996185303</v>
+      </c>
+      <c r="E14">
+        <v>12.800000190734901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15">
+        <v>11.699999809265099</v>
+      </c>
+      <c r="D15">
+        <v>9.8999996185302699</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16">
+        <v>10.3999996185303</v>
+      </c>
+      <c r="D16">
+        <v>10.3999996185303</v>
+      </c>
+      <c r="E16">
+        <v>11.8999996185303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17">
+        <v>11.199999809265099</v>
+      </c>
+      <c r="D17">
+        <v>12.800000190734901</v>
+      </c>
+      <c r="E17">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18">
+        <v>10.699999809265099</v>
+      </c>
+      <c r="D18">
+        <v>11.699999809265099</v>
+      </c>
+      <c r="E18">
+        <v>10.8999996185303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>10.300000190734901</v>
+      </c>
+      <c r="E19">
+        <v>10.199999809265099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20">
+        <v>17.200000762939499</v>
+      </c>
+      <c r="D20">
+        <v>6.4000000953674299</v>
+      </c>
+      <c r="E20">
+        <v>10.1000003814697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21">
+        <v>8.8000001907348597</v>
+      </c>
+      <c r="D21">
+        <v>8.8000001907348597</v>
+      </c>
+      <c r="E21">
+        <v>9.6999998092651403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="D22">
+        <v>8.3999996185302699</v>
+      </c>
+      <c r="E22">
+        <v>8.3999996185302699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23">
+        <v>0.60000002384185802</v>
+      </c>
+      <c r="D23">
+        <v>7.5999999046325701</v>
+      </c>
+      <c r="E23">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24">
+        <v>12.199999809265099</v>
+      </c>
+      <c r="D24">
+        <v>4.5</v>
+      </c>
+      <c r="E24">
+        <v>7.3000001907348597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25">
+        <v>8.6000003814697301</v>
+      </c>
+      <c r="D25">
+        <v>8.8999996185302699</v>
+      </c>
+      <c r="E25">
+        <v>7.1999998092651403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26">
+        <v>6.8000001907348597</v>
+      </c>
+      <c r="D26">
+        <v>6.9000000953674299</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27">
+        <v>7.3000001907348597</v>
+      </c>
+      <c r="D27">
+        <v>7.5</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28">
+        <v>6.8000001907348597</v>
+      </c>
+      <c r="D28">
+        <v>7.0999999046325701</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29">
+        <v>6.9000000953674299</v>
+      </c>
+      <c r="D29">
+        <v>6.8000001907348597</v>
+      </c>
+      <c r="E29">
+        <v>6.9000000953674299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30">
+        <v>6.6999998092651403</v>
+      </c>
+      <c r="D30">
+        <v>6.9000000953674299</v>
+      </c>
+      <c r="E30">
+        <v>6.6999998092651403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31">
+        <v>7.4000000953674299</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>6.6999998092651403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32">
+        <v>6.5999999046325701</v>
+      </c>
+      <c r="D32">
+        <v>6.6999998092651403</v>
+      </c>
+      <c r="E32">
+        <v>6.5999999046325701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33">
+        <v>2.2999999523162802</v>
+      </c>
+      <c r="D33">
+        <v>4.5999999046325701</v>
+      </c>
+      <c r="E33">
+        <v>6.5999999046325701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34">
+        <v>6.9000000953674299</v>
+      </c>
+      <c r="D34">
+        <v>7.5999999046325701</v>
+      </c>
+      <c r="E34">
+        <v>6.4000000953674299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35">
+        <v>6.1999998092651403</v>
+      </c>
+      <c r="D35">
+        <v>6.3000001907348597</v>
+      </c>
+      <c r="E35">
+        <v>6.4000000953674299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36">
+        <v>6.6999998092651403</v>
+      </c>
+      <c r="D36">
+        <v>6.9000000953674299</v>
+      </c>
+      <c r="E36">
+        <v>6.4000000953674299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37">
+        <v>6.0999999046325701</v>
+      </c>
+      <c r="D37">
+        <v>6.4000000953674299</v>
+      </c>
+      <c r="E37">
+        <v>6.1999998092651403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>6.1999998092651403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39">
+        <v>6.5999999046325701</v>
+      </c>
+      <c r="D39">
+        <v>6.5999999046325701</v>
+      </c>
+      <c r="E39">
+        <v>6.1999998092651403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40">
+        <v>6.5</v>
+      </c>
+      <c r="D40">
+        <v>7.3000001907348597</v>
+      </c>
+      <c r="E40">
+        <v>6.0999999046325701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41">
+        <v>6.0999999046325701</v>
+      </c>
+      <c r="D41">
+        <v>6.1999998092651403</v>
+      </c>
+      <c r="E41">
+        <v>6.0999999046325701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42">
+        <v>6.1999998092651403</v>
+      </c>
+      <c r="D42">
+        <v>6.3000001907348597</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43">
+        <v>4.5999999046325701</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>5.8000001907348597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44">
+        <v>5.6999998092651403</v>
+      </c>
+      <c r="D44">
+        <v>5.6999998092651403</v>
+      </c>
+      <c r="E44">
+        <v>5.8000001907348597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45">
+        <v>5.6999998092651403</v>
+      </c>
+      <c r="D45">
+        <v>5.6999998092651403</v>
+      </c>
+      <c r="E45">
+        <v>5.8000001907348597</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46">
+        <v>5.5999999046325701</v>
+      </c>
+      <c r="D46">
+        <v>5.9000000953674299</v>
+      </c>
+      <c r="E46">
+        <v>5.8000001907348597</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47">
+        <v>5.5999999046325701</v>
+      </c>
+      <c r="D47">
+        <v>5.9000000953674299</v>
+      </c>
+      <c r="E47">
+        <v>5.6999998092651403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48">
+        <v>5.6999998092651403</v>
+      </c>
+      <c r="D48">
+        <v>5.6999998092651403</v>
+      </c>
+      <c r="E48">
+        <v>5.6999998092651403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49">
+        <v>6.0999999046325701</v>
+      </c>
+      <c r="D49">
+        <v>6.0999999046325701</v>
+      </c>
+      <c r="E49">
+        <v>5.5999999046325701</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50">
+        <v>9.3000001907348597</v>
+      </c>
+      <c r="D50">
+        <v>3.5</v>
+      </c>
+      <c r="E50">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>4.5</v>
+      </c>
+      <c r="E51">
+        <v>5.1999998092651403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52">
+        <v>6.5999999046325701</v>
+      </c>
+      <c r="D52">
+        <v>5.1999998092651403</v>
+      </c>
+      <c r="E52">
+        <v>5.0999999046325701</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53">
+        <v>5.6999998092651403</v>
+      </c>
+      <c r="D53">
+        <v>5.6999998092651403</v>
+      </c>
+      <c r="E53">
+        <v>5.0999999046325701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54">
+        <v>5.4000000953674299</v>
+      </c>
+      <c r="D54">
+        <v>5.8000001907348597</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55">
+        <v>4.5999999046325701</v>
+      </c>
+      <c r="D55">
+        <v>4.9000000953674299</v>
+      </c>
+      <c r="E55">
+        <v>4.8000001907348597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56">
+        <v>7.1999998092651403</v>
+      </c>
+      <c r="D56">
+        <v>4.9000000953674299</v>
+      </c>
+      <c r="E56">
+        <v>4.5999999046325701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57">
+        <v>4.1999998092651403</v>
+      </c>
+      <c r="D57">
+        <v>4.4000000953674299</v>
+      </c>
+      <c r="E57">
+        <v>4.4000000953674299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58">
+        <v>5.5999999046325701</v>
+      </c>
+      <c r="D58">
+        <v>4.4000000953674299</v>
+      </c>
+      <c r="E58">
+        <v>4.3000001907348597</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59">
+        <v>2.4000000953674299</v>
+      </c>
+      <c r="D59">
+        <v>4.3000001907348597</v>
+      </c>
+      <c r="E59">
+        <v>4.3000001907348597</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60">
+        <v>3.7000000476837198</v>
+      </c>
+      <c r="D60">
+        <v>4.0999999046325701</v>
+      </c>
+      <c r="E60">
+        <v>4.0999999046325701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>4.0999999046325701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62">
+        <v>1.6000000238418599</v>
+      </c>
+      <c r="D62">
+        <v>0.89999997615814198</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63">
+        <v>4.8000001907348597</v>
+      </c>
+      <c r="D63">
+        <v>4.0999999046325701</v>
+      </c>
+      <c r="E63">
+        <v>3.9000000953674299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>4.0999999046325701</v>
+      </c>
+      <c r="E64">
+        <v>3.9000000953674299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65">
+        <v>3.9000000953674299</v>
+      </c>
+      <c r="D65">
+        <v>4.0999999046325701</v>
+      </c>
+      <c r="E65">
+        <v>3.7000000476837198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66">
+        <v>3.5</v>
+      </c>
+      <c r="D66">
+        <v>3.7000000476837198</v>
+      </c>
+      <c r="E66">
+        <v>3.7000000476837198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67">
+        <v>3.5999999046325701</v>
+      </c>
+      <c r="D67">
+        <v>3.5999999046325701</v>
+      </c>
+      <c r="E67">
+        <v>3.5999999046325701</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68">
+        <v>1.6000000238418599</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>3.4000000953674299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69">
+        <v>4.1999998092651403</v>
+      </c>
+      <c r="D69">
+        <v>4.0999999046325701</v>
+      </c>
+      <c r="E69">
+        <v>3.4000000953674299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70">
+        <v>4.5</v>
+      </c>
+      <c r="D70">
+        <v>3.5999999046325701</v>
+      </c>
+      <c r="E70">
+        <v>3.4000000953674299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71">
+        <v>3.2000000476837198</v>
+      </c>
+      <c r="D71">
+        <v>3.2999999523162802</v>
+      </c>
+      <c r="E71">
+        <v>3.2999999523162802</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72">
+        <v>3.0999999046325701</v>
+      </c>
+      <c r="D72">
+        <v>2.4000000953674299</v>
+      </c>
+      <c r="E72">
+        <v>3.2999999523162802</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73">
+        <v>2.4000000953674299</v>
+      </c>
+      <c r="D73">
+        <v>4.0999999046325701</v>
+      </c>
+      <c r="E73">
+        <v>3.0999999046325701</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74">
+        <v>3.4000000953674299</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75">
+        <v>2.7999999523162802</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76">
+        <v>2.7999999523162802</v>
+      </c>
+      <c r="D76">
+        <v>3.2000000476837198</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77">
+        <v>2.7999999523162802</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78">
+        <v>3.9000000953674299</v>
+      </c>
+      <c r="D78">
+        <v>3.2999999523162802</v>
+      </c>
+      <c r="E78">
+        <v>2.9000000953674299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>3.0999999046325701</v>
+      </c>
+      <c r="E79">
+        <v>2.9000000953674299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="D80">
+        <v>1.1000000238418599</v>
+      </c>
+      <c r="E80">
+        <v>2.7000000476837198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="E81">
+        <v>2.4000000953674299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82">
+        <v>2.2000000476837198</v>
+      </c>
+      <c r="D82">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="E82">
+        <v>2.2999999523162802</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>2.5</v>
+      </c>
+      <c r="E83">
+        <v>2.0999999046325701</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84">
+        <v>3.7000000476837198</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>2.0999999046325701</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86">
+        <v>2.9000000953674299</v>
+      </c>
+      <c r="D86">
+        <v>3.2000000476837198</v>
+      </c>
+      <c r="E86">
+        <v>1.8999999761581401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87">
+        <v>1.79999995231628</v>
+      </c>
+      <c r="D87">
+        <v>1.8999999761581401</v>
+      </c>
+      <c r="E87">
+        <v>1.8999999761581401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88">
+        <v>2.2000000476837198</v>
+      </c>
+      <c r="D88">
+        <v>2.4000000953674299</v>
+      </c>
+      <c r="E88">
+        <v>1.79999995231628</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89">
+        <v>1.8999999761581401</v>
+      </c>
+      <c r="D89">
+        <v>6.1999998092651403</v>
+      </c>
+      <c r="E89">
+        <v>1.70000004768372</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90">
+        <v>1.6000000238418599</v>
+      </c>
+      <c r="D90">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="E90">
+        <v>1.6000000238418599</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91">
+        <v>1.5</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>1.29999995231628</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="D92">
+        <v>1.3999999761581401</v>
+      </c>
+      <c r="E92">
+        <v>1.29999995231628</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93">
+        <v>1.79999995231628</v>
+      </c>
+      <c r="D93">
+        <v>0.89999997615814198</v>
+      </c>
+      <c r="E93">
+        <v>1.20000004768372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>166</v>
+      </c>
+      <c r="C94">
+        <v>0.80000001192092796</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1.20000004768372</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95">
+        <v>1.20000004768372</v>
+      </c>
+      <c r="D95">
+        <v>1.20000004768372</v>
+      </c>
+      <c r="E95">
+        <v>1.1000000238418599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96">
+        <v>1.1000000238418599</v>
+      </c>
+      <c r="D96">
+        <v>3.9000000953674299</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97">
+        <v>1.5</v>
+      </c>
+      <c r="D97">
+        <v>1.3999999761581401</v>
+      </c>
+      <c r="E97">
+        <v>0.89999997615814198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>65</v>
+      </c>
+      <c r="B98" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98">
+        <v>0.80000001192092796</v>
+      </c>
+      <c r="D98">
+        <v>0.89999997615814198</v>
+      </c>
+      <c r="E98">
+        <v>0.80000001192092796</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="D99">
+        <v>0.80000001192092796</v>
+      </c>
+      <c r="E99">
+        <v>0.80000001192092796</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" t="s">
+        <v>167</v>
+      </c>
+      <c r="C100">
+        <v>0.80000001192092796</v>
+      </c>
+      <c r="D100">
+        <v>0.80000001192092796</v>
+      </c>
+      <c r="E100">
+        <v>0.80000001192092796</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101">
+        <v>0.60000002384185802</v>
+      </c>
+      <c r="D101">
+        <v>3.5999999046325701</v>
+      </c>
+      <c r="E101">
+        <v>0.40000000596046398</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" t="s">
+        <v>167</v>
+      </c>
+      <c r="C102">
+        <v>0.5</v>
+      </c>
+      <c r="D102">
+        <v>3.0999999046325701</v>
+      </c>
+      <c r="E102">
+        <v>0.30000001192092901</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" t="s">
+        <v>166</v>
+      </c>
+      <c r="C103">
+        <v>0.40000000596046398</v>
+      </c>
+      <c r="D103">
+        <v>2.5</v>
+      </c>
+      <c r="E103">
+        <v>0.20000000298023199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE091120-DBBD-3340-97E6-FE30FD5A7E81}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="143.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1">
+        <v>2013</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF83B85-353B-0149-8E3E-C3B8774DD0F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E069EA6-F13C-A247-9EA3-D90FDEDFF76E}">
   <dimension ref="A1:E56"/>
   <sheetViews>
@@ -2634,7 +4836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BBDBA0-75E6-A34D-9777-222E90BAECB3}">
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -3159,7 +5361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7684A213-662A-7C48-9E02-D5DD822B61A7}">
   <dimension ref="A1:E171"/>
   <sheetViews>
